--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AB2AAC-7BED-41D8-9647-D8612026B7E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07BF22D-4E2B-420F-8C33-933DD2B7F56D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>금융상품유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,11 @@
 매출채권 매입 = 5
 지급보증 = 6
 기타 대출성상품 = 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세주소
+(법인등기부등본상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +193,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -514,13 +522,13 @@
     <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" customWidth="1"/>
-    <col min="8" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.69921875" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3984375" customWidth="1"/>
+    <col min="9" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -536,40 +544,44 @@
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="295.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="295.8" x14ac:dyDescent="0.4">
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3"/>
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -585,16 +597,16 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>44287</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>44348</v>
       </c>
     </row>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07BF22D-4E2B-420F-8C33-933DD2B7F56D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7E2660-1B36-46F5-9CE9-7217BCF27E5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>금융상품유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>법인등록번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위탁예정기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>상호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,35 +35,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설립년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본점소재지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자본금(백만원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>여신금융협회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신동환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000000-0000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 = 1
+    <t>상세주소
+(법인등기부등본상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인등록번호
+000000-0000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설립년월일
+YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본점소재지
+서울 = 1
 경기 = 2
 충청북도 = 3
 충청남도 = 4
@@ -99,7 +83,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대출 = 1
+    <t>금융상품유형
+대출 = 1
 시설대여 및 연불판매 = 2
 할부 = 3
 어음할인 = 4
@@ -109,8 +94,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상세주소
-(법인등기부등본상)</t>
+    <t>계약일자
+YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위탁예정기간
+YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산구 한남동 221-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,9 +185,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -528,85 +523,67 @@
     <col min="9" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="313.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44320</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="295.8" x14ac:dyDescent="0.4">
-      <c r="D2" s="2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3"/>
       <c r="G2">
         <v>1000</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44320</v>
-      </c>
-      <c r="E3">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="I2" s="2">
         <v>44287</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J2" s="2">
         <v>44348</v>
       </c>
     </row>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7E2660-1B36-46F5-9CE9-7217BCF27E5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D770EF20-F314-4E7A-9153-78DD909195FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -24,8 +24,692 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>a</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EF3EB984-8DC1-4A54-9A47-D34F43246A5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>000000-0000000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D72D2C1C-6D69-4548-B88E-ED7B1F67A5F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYY-MM-DD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{322E37BB-88EF-4718-B207-8B1B17B18C95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서울</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충청북도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충청남도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강원도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경상북도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경상남도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 7
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전라북도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전라남도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 9
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인천</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세종</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 11
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 12
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대구</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 13
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>울산</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 14
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>광주</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 15
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부산</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 16
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제주</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{25BF4B15-BD58-4B40-B966-8F700B9CF2ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대출</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시설대여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>및</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>연불판매</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어음할인</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>매출채권</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>매입</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지급보증</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기타</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대출성상품</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C0163CAE-5270-42A0-8B5B-AEFDE60D2337}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYY-MM-DD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0824D8B2-B9A7-4CAA-AC62-F3167EFB4123}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYY-MM-DD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>상호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,76 +723,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000000-0000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세주소
 (법인등기부등본상)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베이직</t>
+    <t>법인등록번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>법인등록번호
-000000-0000000</t>
+    <t>설립년월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설립년월일
-YYYY-MM-DD</t>
+    <t>본점소재지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본점소재지
-서울 = 1
-경기 = 2
-충청북도 = 3
-충청남도 = 4
-강원도 = 5
-경상북도 = 6
-경상남도 = 7
-전라북도 = 8
-전라남도 = 9
-인천 = 10
-세종 = 11
-대전 = 12
-대구 = 13
-울산 = 14
-광주 = 15
-부산 = 16
-제주 = 17</t>
+    <t>금융상품유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>금융상품유형
-대출 = 1
-시설대여 및 연불판매 = 2
-할부 = 3
-어음할인 = 4
-매출채권 매입 = 5
-지급보증 = 6
-기타 대출성상품 = 7</t>
+    <t>계약일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계약일자
-YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위탁예정기간
-YYYY-MM-DD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용산구 한남동 221-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
+    <t>위탁예정기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +756,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +771,21 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,15 +831,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,11 +1157,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -523,73 +1175,42 @@
     <col min="9" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="313.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44320</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>1000</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>44287</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44348</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\모집인등록테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D770EF20-F314-4E7A-9153-78DD909195FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158D586-8919-40B2-939B-545664091258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\git\loans\src\main\resources\static\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158D586-8919-40B2-939B-545664091258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E42E8B9-6F54-4B53-A22F-E86E81B9F33E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>상호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,6 +749,10 @@
   </si>
   <si>
     <t>위탁예정기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1175,7 +1179,7 @@
     <col min="9" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1206,6 +1210,9 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E42E8B9-6F54-4B53-A22F-E86E81B9F33E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DC9A08-32A3-4778-A138-0014B68B140C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -478,6 +478,70 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유사상품</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기타</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve"> </t>
         </r>
         <r>
@@ -489,7 +553,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>및</t>
+          <t>대출성</t>
         </r>
         <r>
           <rPr>
@@ -510,169 +574,17 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>연불판매</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 2
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>할부</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 3
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>어음할인</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 4
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>매출채권</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>매입</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>지급보증</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 6
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기타</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대출성상품</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 7</t>
+          <t>상품</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 3</t>
         </r>
       </text>
     </comment>
@@ -1164,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAB227F-FD2D-4D18-921E-102D9DBA97B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8635DE6-A6F7-4A7D-97A7-72B2D7640DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -464,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{25BF4B15-BD58-4B40-B966-8F700B9CF2ED}">
+    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{25BF4B15-BD58-4B40-B966-8F700B9CF2ED}">
       <text>
         <r>
           <rPr>
@@ -617,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{C0163CAE-5270-42A0-8B5B-AEFDE60D2337}">
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{C0163CAE-5270-42A0-8B5B-AEFDE60D2337}">
       <text>
         <r>
           <rPr>
@@ -631,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{0824D8B2-B9A7-4CAA-AC62-F3167EFB4123}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{0824D8B2-B9A7-4CAA-AC62-F3167EFB4123}">
       <text>
         <r>
           <rPr>
@@ -642,6 +642,42 @@
             <family val="2"/>
           </rPr>
           <t>YYYY-MM-DD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{D17DFCA5-005A-431A-A53A-7FCC56142E84}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대표이사의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> CI</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값</t>
         </r>
       </text>
     </comment>
@@ -650,7 +686,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>상호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -702,6 +738,10 @@
   </si>
   <si>
     <t>대표이사 휴대폰번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의결권있는 발행주식 총수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P22" sqref="P21:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1126,11 +1166,12 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="20.69921875" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.3984375" customWidth="1"/>
-    <col min="11" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.3984375" customWidth="1"/>
+    <col min="12" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1158,16 +1199,19 @@
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8635DE6-A6F7-4A7D-97A7-72B2D7640DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB9FD84-9105-47DE-B20A-37CCFAC94A46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,49 +497,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>시설대여</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>할부</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>유사상품</t>
+          <t>리스</t>
         </r>
         <r>
           <rPr>
@@ -550,70 +508,50 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> = 2
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기타</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대출성</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>상품</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 3</t>
+TM</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대출</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 3
+TM</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>리스</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 4</t>
         </r>
       </text>
     </comment>
@@ -1154,7 +1092,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P22" sqref="P21:P22"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB9FD84-9105-47DE-B20A-37CCFAC94A46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D371EB-CD40-4AB4-B890-425CC8A2404F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -485,7 +485,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> = 1
+          <t xml:space="preserve"> = 01
+TM</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대출</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 03
 </t>
         </r>
         <r>
@@ -507,7 +529,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> = 2
+          <t xml:space="preserve"> = 05
 TM</t>
         </r>
         <r>
@@ -519,28 +541,6 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대출</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 3
-TM</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
           <t>리스</t>
         </r>
         <r>
@@ -551,7 +551,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> = 4</t>
+          <t xml:space="preserve"> = 06</t>
         </r>
       </text>
     </comment>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D371EB-CD40-4AB4-B890-425CC8A2404F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E429B396-AB21-48FA-BF3B-D747B23F25A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +774,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,7 +1095,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1105,7 +1108,7 @@
     <col min="7" max="8" width="20.69921875" customWidth="1"/>
     <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.3984375" customWidth="1"/>
+    <col min="11" max="11" width="22.3984375" style="4" customWidth="1"/>
     <col min="12" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E429B396-AB21-48FA-BF3B-D747B23F25A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80FBB5C-4C26-4607-A84B-DF2E7EAB073B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> = 01
+          <t xml:space="preserve"> = 1
 TM</t>
         </r>
         <r>
@@ -507,7 +507,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> = 03
+          <t xml:space="preserve"> = 3
 </t>
         </r>
         <r>
@@ -529,7 +529,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> = 05
+          <t xml:space="preserve"> = 5
 TM</t>
         </r>
         <r>
@@ -551,7 +551,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> = 06</t>
+          <t xml:space="preserve"> = 6</t>
         </r>
       </text>
     </comment>
@@ -775,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80FBB5C-4C26-4607-A84B-DF2E7EAB073B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69517282-9A2C-47D2-A688-451506876A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,13 +769,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,21 +1095,23 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.69921875" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="4"/>
+    <col min="3" max="3" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.69921875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.3984375" style="4" customWidth="1"/>
-    <col min="12" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69517282-9A2C-47D2-A688-451506876A63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8562780-1584-4E89-9089-98795C902967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>상호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,6 +680,10 @@
   </si>
   <si>
     <t>의결권있는 발행주식 총수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:N1048576"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1114,7 +1118,7 @@
     <col min="14" max="14" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1156,6 +1160,9 @@
       </c>
       <c r="N1" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8562780-1584-4E89-9089-98795C902967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C618C-C03C-42B0-96CA-9E0E917F7E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
@@ -659,10 +659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계약일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위탁예정기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,6 +680,10 @@
   </si>
   <si>
     <t>업종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약(예정)일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1114,7 +1114,8 @@
     <col min="9" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.8984375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.3984375" style="4" customWidth="1"/>
-    <col min="12" max="13" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.796875" style="4"/>
   </cols>
   <sheetData>
@@ -1126,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -1147,22 +1148,22 @@
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\git\loans\src\main\resources\static\sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96C618C-C03C-42B0-96CA-9E0E917F7E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +19,135 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>전용우</author>
     <author>sohui</author>
     <author>a</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E3055410-950F-429E-828E-CAA9A310CFBF}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>000000-0000000</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대표이사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>성명
+공동대표이사가</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>있는</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인만</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{06A9F70A-2A5D-4A8A-9D24-E1A8F6E3EFDD}">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -55,11 +157,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>000-0000-0000</t>
+          <t>000000-0000000</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{EF3EB984-8DC1-4A54-9A47-D34F43246A5B}">
+    <comment ref="D1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -69,11 +171,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>000000-0000000</t>
+          <t>000-0000-0000</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{D72D2C1C-6D69-4548-B88E-ED7B1F67A5F6}">
+    <comment ref="E1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -83,388 +185,480 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>YYYY-MM-DD</t>
+          <t>000000-0000000</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{322E37BB-88EF-4718-B207-8B1B17B18C95}">
+    <comment ref="F1" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>서울</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 2
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>충청북도</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 3
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>충청남도</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 4
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>강원도</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 5
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경상북도</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 6
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경상남도</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 7
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>전라북도</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 8
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>전라남도</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 9
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>인천</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 10
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>세종</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 11
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대전</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 12
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>대구</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 13
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>울산</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 14
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>광주</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 15
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>부산</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 16
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>제주</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> = 17</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYY-MM-DD</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="1" shapeId="0" xr:uid="{25BF4B15-BD58-4B40-B966-8F700B9CF2ED}">
+    <comment ref="G1" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서울</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충청북도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>충청남도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 4
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강원도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경상북도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 6
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경상남도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 7
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전라북도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 8
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전라남도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 9
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인천</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세종</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 11
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대전</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 12
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대구</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 13
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>울산</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 14
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>광주</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 15
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>부산</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 16
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제주</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실제</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>거주지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -555,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{C0163CAE-5270-42A0-8B5B-AEFDE60D2337}">
+    <comment ref="L1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -569,7 +763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{0824D8B2-B9A7-4CAA-AC62-F3167EFB4123}">
+    <comment ref="M1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -583,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{D17DFCA5-005A-431A-A53A-7FCC56142E84}">
+    <comment ref="N1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -690,7 +884,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1088,38 +1282,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC9980-449E-431A-AF95-CC100EDA729F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" style="4"/>
+    <col min="1" max="1" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="4"/>
     <col min="3" max="3" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.69921875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="20.75" style="4" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.3984375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.796875" style="4"/>
+    <col min="10" max="10" width="24.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
+++ b/src/main/resources/static/sample/모집인등록_법인_샘플.xlsx
@@ -691,7 +691,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대출</t>
+          <t>대출법인</t>
         </r>
         <r>
           <rPr>
@@ -723,8 +723,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오토론</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve"> = 5
-TM</t>
+TM(</t>
         </r>
         <r>
           <rPr>
@@ -736,6 +778,69 @@
             <charset val="129"/>
           </rPr>
           <t>리스</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>할부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오토론</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>법인</t>
         </r>
         <r>
           <rPr>
@@ -1282,7 +1387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1293,7 +1398,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
